--- a/data/4/20230604-a1r-nc-session4-g_transcript.xlsx
+++ b/data/4/20230604-a1r-nc-session4-g_transcript.xlsx
@@ -1,360 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:03 /06:03 excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD47DD1-EE85-4747-98CA-1E2A3FA41B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230604-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"9:54"</t>
-  </si>
-  <si>
-    <t>I'm for a proposal for I do think that citizens united did lead to Super Pacs and kind of started the bidding war on the current political climate. And I don't agree with raising the limit on contributions.</t>
-  </si>
-  <si>
-    <t>"10:13"</t>
-  </si>
-  <si>
-    <t>Okay, I don't agree with one or two or three of Raising up the contributions of now, where they're saying that they put a 5,000 limit number three. Yeah, I think that would be good number four. Yes, definitely. And number five. I think they need to close that loophole for sure.</t>
-  </si>
-  <si>
-    <t>"10:38"</t>
-  </si>
-  <si>
-    <t>I agree. I am not in favor of any of the proposals to increase the limits because it's just more money into the into the politics. And we don't know where it's coming from. They're saying is Free Speech. They can take part in it, but then they can tell us who the person is. So I don't see how you can have it both ways. So for me, it's know for all of these. That say we have to increase something. I'm know.</t>
-  </si>
-  <si>
-    <t>"11:01"</t>
-  </si>
-  <si>
-    <t>I agree with that and definitely the stop. The loophole that allows for, and controlled entities to basically, invest or by a politician, and in our current climate. But I don't want them to raise the limits on what can be, what can be donated? I think there's too much money in it already. I think the only way we're going to get away from. You know, these people buying politicians is to have government funded elections with a certain threshold to become a candidate. If not, it's just the biggest guy with the biggest checkbook, is the one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That gets his voice heard.</t>
-  </si>
-  <si>
-    <t>"11:33"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with what everyone said already. I think there's too much money already involved and you know just increasing that limit is only going to make it more more. So just the biggest money like Richard just said, and I also agree with closing that loophole, I don't think there needs to be any more, you know, foreign influence as there is. And I think we should really limit that.</t>
-  </si>
-  <si>
-    <t>"11:59"</t>
-  </si>
-  <si>
-    <t>That loophole is so wide, I don't even think it's a loophole anymore. It's a very open door that lets the people with the most money coming and by the elections, I mean, Saudi Arabia can dump as much money as they want in here and get everything they want. Is that what's going to be good for America? And for us this is, I think know. So I think that should be completely shut down.</t>
-  </si>
-  <si>
-    <t>"12:28"</t>
-  </si>
-  <si>
-    <t>I definitely agree with that. I don't think we should be raising any limits or anything like that.</t>
-  </si>
-  <si>
-    <t>"12:37"</t>
-  </si>
-  <si>
-    <t>I don't think we should raise limits and the loophole. We should never even have that open, because no foreign country should be able to buy into any of our campaigns at all. I think they should be able to raise their own money, and there should be a certain amount and not raise it up anymore.</t>
-  </si>
-  <si>
-    <t>"13:04"</t>
-  </si>
-  <si>
-    <t>I think I mentioned this earlier on today, this in yesterday, this individually, raising money is all part of the problem, and again, we don't know everybody who's contributing to this stuff. Let's just set it set fee for different, different types of electric, obviously the official election be more than what you think. Somebody is running for mayor because psf thing that the government pays for and then we move on with that. In fact, I know in the UK they have what, they call it deposit. You put a certain amount of money down and then the government gives you</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> if you don't have a certain percentage, given that deposit wouldn't get back but if you have a certain percentage give you that deposit back,</t>
-  </si>
-  <si>
-    <t>"13:42"</t>
-  </si>
-  <si>
-    <t>No, and to comment on the limits, they are now. I've never donated 3,300 dollars to a political candidate, and I would be surprised if you guys</t>
-  </si>
-  <si>
-    <t>"15:50"</t>
-  </si>
-  <si>
-    <t>Anything over a hundred dollars should be disclosed, there should be a limit if there's individuals that corporations that are submitted contributing, but I don't think we should even go down that path publicly fund this thing and everybody knows what's going on. And we move on</t>
-  </si>
-  <si>
-    <t>"16:15"</t>
-  </si>
-  <si>
-    <t>I truly believe that the public funded option is the only real option that we have, if not, we're right back to even if it's a hundred dollars or 200 or 500 or 3300, it doesn't matter, it's just more money and more influence because of the size of your checkbook, and that just isn't the way our system should be run.</t>
-  </si>
-  <si>
-    <t>"17:00"</t>
-  </si>
-  <si>
-    <t>I agree with Richard. I really think we should.</t>
-  </si>
-  <si>
-    <t>"17:58"</t>
-  </si>
-  <si>
-    <t>I've always agreed with an independent Commission, on the district redrawing because the politicians are choosing the people that elect them, at this point. They're drawing circles around circles within a block of each other and they're picking the people that they want to be their constituents instead of us picking the people we want to be our Representatives.</t>
-  </si>
-  <si>
-    <t>"18:18"</t>
-  </si>
-  <si>
-    <t>I completely agree with you Richard. I mean anything that would be independent even have to do a national law to make sure that happens. I agree with that, if it's, if it was, if you leave it up to the politicians, they will do everything to their benefit. They'll be choosing us rather than just using them. I completely agree with you.</t>
-  </si>
-  <si>
-    <t>"18:36"</t>
-  </si>
-  <si>
-    <t>I agree. We should have independent counsel picking our districts here in Florida. We had a congresswoman, who was complaining about how they re District certain areas and she was complaining because she wanted a certain area for her voters, she called her voters and she didn't get them and they re district. And she was very upset and lost her, what she called her?</t>
-  </si>
-  <si>
-    <t>"19:06"</t>
-  </si>
-  <si>
-    <t>Great with you guys. 100%</t>
-  </si>
-  <si>
-    <t>"19:11"</t>
-  </si>
-  <si>
-    <t>I agree with everyone. I think we should remove any political influence with, you know, when it comes to redistrict redistricting. And I also agree that if it has to take a national law to make this happen, I think that it should</t>
-  </si>
-  <si>
-    <t>"19:26"</t>
-  </si>
-  <si>
-    <t>Ray, there's got to be something they can do better than what they're doing now.</t>
-  </si>
-  <si>
-    <t>"19:35"</t>
-  </si>
-  <si>
-    <t>Yep, I agree in the last 10 years, my district has been redrawn three times and get me.</t>
-  </si>
-  <si>
-    <t>"19:42"</t>
-  </si>
-  <si>
-    <t>I agree as well.</t>
-  </si>
-  <si>
-    <t>"20:42"</t>
-  </si>
-  <si>
-    <t>I'm not sure about that. Like, they see forcing people to vote, I don't want to get in trouble for that right now. I think it is good possibly, to let the 16 year olds like participate, that would be something different and need to add. Yeah.</t>
-  </si>
-  <si>
-    <t>"21:02"</t>
-  </si>
-  <si>
-    <t>I completely agree with all of the all of the proposals in as much as I don't want to force people to vote, but I always say if you don't vote, then you don't have a right to complain because you're letting other people make the choice for you. What are you complaining about? So you have to go vote in as much as I don't like forcing people to vote if they make it a public holiday, then nobody has an any excuse to not go on watch.</t>
-  </si>
-  <si>
-    <t>"21:27"</t>
-  </si>
-  <si>
-    <t>I don't believe you should find somebody just because they don't want to vote. I mean, it's their, their writing, their their choice to whether they want to do it or not. So you should not find them over that, but I believe having a sixteen-year-old vote and a local school. Election is a right thing to have them to learn how to the process goes. And I believe in the first into one's a person s.</t>
-  </si>
-  <si>
-    <t>"21:56"</t>
-  </si>
-  <si>
-    <t>I agree allowing the sixteen-year-old svelte. The school board's a good thing. If we do a find for skipping voting, I think it would only be in a scenario where we make Election Day a holiday, and it would be something nominal kind of like jury duty.</t>
-  </si>
-  <si>
-    <t>"22:13"</t>
-  </si>
-  <si>
-    <t>I agree with all of these except for forcing people to vote. I agree with what a people have said before that, you know, it's their choice, if they don't want you or not. But I also agree with the fact that like, if you don't vote, then you can't really complain about what's going on. So I think it should be made easier to vote, but not necessarily forcing people to vote.</t>
-  </si>
-  <si>
-    <t>"22:38"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with that too. I don't believe in forcing people to vote, I believe in Brazil. They tried that in and ended up with a whole bunch of weird consequences that nobody really thought would happen. But they happen. Now, the other thing about 16 year olds, Definitely Maybe in the School Board elections and stuff like that just to get him used to the process, get him used to critical thinking, get them used to you know deciding and making decisions of consequence.</t>
-  </si>
-  <si>
-    <t>"23:01"</t>
-  </si>
-  <si>
-    <t>Okay, I agree with everything except portion from 125 to vote because finding someone because they didn't vote, it might be because it can make up their mind who to vote for and who wants to do any money mail? When you're going to vote? And I mean that's not a good thing. As for the 16 year old dogs, think they should be able to vote with the school board and everything.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thing because there should be able to participate in their schools to begin with and saying what's going on, because they know what's going on in the school there at the schools. They know what they're being taught. They know, we don't we're not there. I mean, yes.</t>
-  </si>
-  <si>
-    <t>"28:03"</t>
-  </si>
-  <si>
-    <t>Dogs. Good question, why don't we? And if we do</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Why isn't that working? Then let's devolve into fixing it longer question. I'm really interested to see how they explain that one and they panels. Thank you.</t>
-  </si>
-  <si>
-    <t>"28:22"</t>
-  </si>
-  <si>
-    <t>I think the question is perfect, but maybe ask at the end of it. Have we had that in the past and did somebody change it and when did they change it? Because it just seems like it shouldn't be the way it is right now. So when was it changing her, was it ever changed?</t>
-  </si>
-  <si>
-    <t>"28:39"</t>
-  </si>
-  <si>
-    <t>My question is, why isn't it in place already? I mean, it shouldn't be up to Congress or any other buddy else to have the district their way.</t>
-  </si>
-  <si>
-    <t>"28:55"</t>
-  </si>
-  <si>
-    <t>and if there is such a system whose on it,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Who made it? Who approves it? Who funds it? Etc, etc.</t>
-  </si>
-  <si>
-    <t>"29:22"</t>
-  </si>
-  <si>
-    <t>I think it would, but I don't really know because that might not be anywhere in the Constitution, but I would think forcing us to do something like, I mean, it's not really bad to force us to vote, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I mean, I think I just something we should go.</t>
-  </si>
-  <si>
-    <t>"29:40"</t>
-  </si>
-  <si>
-    <t>II don't really think we should be forced to vote. I think it's it's left with everybody's conscience. Like I said, if you don't vote then don't complain. Whatever we get is what the people who chose to go vote chose so you have no right to complain.</t>
-  </si>
-  <si>
-    <t>"30:30"</t>
-  </si>
-  <si>
-    <t>I think the question is redundant. I know we talked about this yesterday in the group.</t>
-  </si>
-  <si>
-    <t>"30:37"</t>
-  </si>
-  <si>
-    <t>I don't know that it's redundant because again remember they're going to put this in a bucket of all the other questions from the other groups so that we have some something in there. Asking the question, I don't know that it's redundant. We only had now the opportunity to put in a question on that particular subject. Thank you, brother.</t>
-  </si>
-  <si>
-    <t>"31:03"</t>
-  </si>
-  <si>
-    <t>I think it needs to be put into made a holiday that more and more people would get out and vote.</t>
-  </si>
-  <si>
-    <t>"31:42"</t>
-  </si>
-  <si>
-    <t>Let's to make a quick comment on the first one. I'm pretty sure in history back on because I studied a lot of his history back in historical days. When life Temple was not what it is today. Local shops, local districts. Everybody is shut down. Have a party and move on. I wonder if it's a life Temple.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The way we live today that we don't have time for anything, probably much much that. So in history, I believe we had it once and on a non-official basis locally.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -430,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -539,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1621,647 +1302,760 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48465</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"9:54"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>I'm for a proposal for I do think that citizens united did lead to Super Pacs and kind of started the bidding war on the current political climate. And I don't agree with raising the limit on contributions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48394</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"10:13"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Okay, I don't agree with one or two or three of Raising up the contributions of now, where they're saying that they put a 5,000 limit number three. Yeah, I think that would be good number four. Yes, definitely. And number five. I think they need to close that loophole for sure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48404</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"10:38"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I am not in favor of any of the proposals to increase the limits because it's just more money into the into the politics. And we don't know where it's coming from. They're saying is Free Speech. They can take part in it, but then they can tell us who the person is. So I don't see how you can have it both ways. So for me, it's know for all of these. That say we have to increase something. I'm know.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>9697</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"11:01"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>I agree with that and definitely the stop. The loophole that allows for, and controlled entities to basically, invest or by a politician, and in our current climate. But I don't want them to raise the limits on what can be, what can be donated? I think there's too much money in it already. I think the only way we're going to get away from. You know, these people buying politicians is to have government funded elections with a certain threshold to become a candidate. If not, it's just the biggest guy with the biggest checkbook, is the one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>9697</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"11:01"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That gets his voice heard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48328</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"11:33"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>48328</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"11:33"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with what everyone said already. I think there's too much money already involved and you know just increasing that limit is only going to make it more more. So just the biggest money like Richard just said, and I also agree with closing that loophole, I don't think there needs to be any more, you know, foreign influence as there is. And I think we should really limit that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>48404</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"11:59"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>That loophole is so wide, I don't even think it's a loophole anymore. It's a very open door that lets the people with the most money coming and by the elections, I mean, Saudi Arabia can dump as much money as they want in here and get everything they want. Is that what's going to be good for America? And for us this is, I think know. So I think that should be completely shut down.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>48512</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"12:28"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>I definitely agree with that. I don't think we should be raising any limits or anything like that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>48325</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"12:37"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>I don't think we should raise limits and the loophole. We should never even have that open, because no foreign country should be able to buy into any of our campaigns at all. I think they should be able to raise their own money, and there should be a certain amount and not raise it up anymore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48404</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"13:04"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>I think I mentioned this earlier on today, this in yesterday, this individually, raising money is all part of the problem, and again, we don't know everybody who's contributing to this stuff. Let's just set it set fee for different, different types of electric, obviously the official election be more than what you think. Somebody is running for mayor because psf thing that the government pays for and then we move on with that. In fact, I know in the UK they have what, they call it deposit. You put a certain amount of money down and then the government gives you</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48404</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"13:04"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> if you don't have a certain percentage, given that deposit wouldn't get back but if you have a certain percentage give you that deposit back,</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48465</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"13:42"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>No, and to comment on the limits, they are now. I've never donated 3,300 dollars to a political candidate, and I would be surprised if you guys</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48404</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"15:50"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Anything over a hundred dollars should be disclosed, there should be a limit if there's individuals that corporations that are submitted contributing, but I don't think we should even go down that path publicly fund this thing and everybody knows what's going on. And we move on</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>9697</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"16:15"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>I truly believe that the public funded option is the only real option that we have, if not, we're right back to even if it's a hundred dollars or 200 or 500 or 3300, it doesn't matter, it's just more money and more influence because of the size of your checkbook, and that just isn't the way our system should be run.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48394</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"17:00"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>I agree with Richard. I really think we should.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>9697</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"17:58"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>I've always agreed with an independent Commission, on the district redrawing because the politicians are choosing the people that elect them, at this point. They're drawing circles around circles within a block of each other and they're picking the people that they want to be their constituents instead of us picking the people we want to be our Representatives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48404</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"18:18"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>I completely agree with you Richard. I mean anything that would be independent even have to do a national law to make sure that happens. I agree with that, if it's, if it was, if you leave it up to the politicians, they will do everything to their benefit. They'll be choosing us rather than just using them. I completely agree with you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48325</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"18:36"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>I agree. We should have independent counsel picking our districts here in Florida. We had a congresswoman, who was complaining about how they re District certain areas and she was complaining because she wanted a certain area for her voters, she called her voters and she didn't get them and they re district. And she was very upset and lost her, what she called her?</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48359</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"19:06"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Great with you guys. 100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48328</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"19:11"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>I agree with everyone. I think we should remove any political influence with, you know, when it comes to redistrict redistricting. And I also agree that if it has to take a national law to make this happen, I think that it should</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48394</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"19:26"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Ray, there's got to be something they can do better than what they're doing now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48465</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"19:35"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Yep, I agree in the last 10 years, my district has been redrawn three times and get me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>48512</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"19:42"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>I agree as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48512</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"20:42"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>I'm not sure about that. Like, they see forcing people to vote, I don't want to get in trouble for that right now. I think it is good possibly, to let the 16 year olds like participate, that would be something different and need to add. Yeah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48404</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"21:02"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>I completely agree with all of the all of the proposals in as much as I don't want to force people to vote, but I always say if you don't vote, then you don't have a right to complain because you're letting other people make the choice for you. What are you complaining about? So you have to go vote in as much as I don't like forcing people to vote if they make it a public holiday, then nobody has an any excuse to not go on watch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48325</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"21:27"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>I don't believe you should find somebody just because they don't want to vote. I mean, it's their, their writing, their their choice to whether they want to do it or not. So you should not find them over that, but I believe having a sixteen-year-old vote and a local school. Election is a right thing to have them to learn how to the process goes. And I believe in the first into one's a person s.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>48465</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"21:56"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>I agree allowing the sixteen-year-old svelte. The school board's a good thing. If we do a find for skipping voting, I think it would only be in a scenario where we make Election Day a holiday, and it would be something nominal kind of like jury duty.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48328</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"22:13"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>I agree with all of these except for forcing people to vote. I agree with what a people have said before that, you know, it's their choice, if they don't want you or not. But I also agree with the fact that like, if you don't vote, then you can't really complain about what's going on. So I think it should be made easier to vote, but not necessarily forcing people to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>9697</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"22:38"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with that too. I don't believe in forcing people to vote, I believe in Brazil. They tried that in and ended up with a whole bunch of weird consequences that nobody really thought would happen. But they happen. Now, the other thing about 16 year olds, Definitely Maybe in the School Board elections and stuff like that just to get him used to the process, get him used to critical thinking, get them used to you know deciding and making decisions of consequence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>48394</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"23:01"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Okay, I agree with everything except portion from 125 to vote because finding someone because they didn't vote, it might be because it can make up their mind who to vote for and who wants to do any money mail? When you're going to vote? And I mean that's not a good thing. As for the 16 year old dogs, think they should be able to vote with the school board and everything.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48394</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"23:01"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thing because there should be able to participate in their schools to begin with and saying what's going on, because they know what's going on in the school there at the schools. They know what they're being taught. They know, we don't we're not there. I mean, yes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48359</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"28:03"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Dogs. Good question, why don't we? And if we do</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48359</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"28:03"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Why isn't that working? Then let's devolve into fixing it longer question. I'm really interested to see how they explain that one and they panels. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>9697</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"28:22"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>I think the question is perfect, but maybe ask at the end of it. Have we had that in the past and did somebody change it and when did they change it? Because it just seems like it shouldn't be the way it is right now. So when was it changing her, was it ever changed?</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48325</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"28:39"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>My question is, why isn't it in place already? I mean, it shouldn't be up to Congress or any other buddy else to have the district their way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48359</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"28:55"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>and if there is such a system whose on it,</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48359</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"28:55"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Who made it? Who approves it? Who funds it? Etc, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48359</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"28:55"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48512</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"29:22"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>I think it would, but I don't really know because that might not be anywhere in the Constitution, but I would think forcing us to do something like, I mean, it's not really bad to force us to vote, but</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48512</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"29:22"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I mean, I think I just something we should go.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48404</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"29:40"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>II don't really think we should be forced to vote. I think it's it's left with everybody's conscience. Like I said, if you don't vote then don't complain. Whatever we get is what the people who chose to go vote chose so you have no right to complain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48465</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"30:30"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>I think the question is redundant. I know we talked about this yesterday in the group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48404</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"30:37"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>I don't know that it's redundant because again remember they're going to put this in a bucket of all the other questions from the other groups so that we have some something in there. Asking the question, I don't know that it's redundant. We only had now the opportunity to put in a question on that particular subject. Thank you, brother.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>48325</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"31:03"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>I think it needs to be put into made a holiday that more and more people would get out and vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>48359</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"31:42"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n"/>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>48359</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"31:42"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Let's to make a quick comment on the first one. I'm pretty sure in history back on because I studied a lot of his history back in historical days. When life Temple was not what it is today. Local shops, local districts. Everybody is shut down. Have a party and move on. I wonder if it's a life Temple.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48359</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>83</v>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"31:42"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The way we live today that we don't have time for anything, probably much much that. So in history, I believe we had it once and on a non-official basis locally.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB074A3-D733-D14D-BBC2-49117B89959C}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>